--- a/miago/docs/data/transfering_assumption.xlsx
+++ b/miago/docs/data/transfering_assumption.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="10785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -10222,8 +10222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1028"/>
   <sheetViews>
-    <sheetView topLeftCell="J206" workbookViewId="0">
-      <selection activeCell="K233" sqref="K233"/>
+    <sheetView tabSelected="1" topLeftCell="M215" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -55241,8 +55241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D787" workbookViewId="0">
-      <selection activeCell="D787" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D813" sqref="D813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55250,7 +55250,7 @@
     <col min="1" max="1" width="49.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="148.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="122.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="144.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="75.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
